--- a/data/trans_bre/P07_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P07_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.5989722961159692</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.147548530295434</v>
+        <v>3.147548530295435</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.332343613894455</v>
@@ -649,7 +649,7 @@
         <v>-0.2182509776364724</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.8736244802853054</v>
+        <v>0.8736244802853057</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.372184023647018</v>
+        <v>1.442170066070432</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.173655313403339</v>
+        <v>-0.03667881724243709</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.743278523378011</v>
+        <v>-2.705214976072205</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.369614379902424</v>
+        <v>-1.394381118524613</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2801393473786575</v>
+        <v>0.2793455504776498</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.0003286351847018475</v>
+        <v>-0.05231372975482419</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7137783484206583</v>
+        <v>-0.7135813613003963</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3940829944697631</v>
+        <v>-0.3883578968628077</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.591899985045077</v>
+        <v>6.836302026695158</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.772956199845898</v>
+        <v>5.683242375802021</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.444227909040014</v>
+        <v>1.624080630912264</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.502799340959438</v>
+        <v>8.241898552337604</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.593144995035467</v>
+        <v>3.75291191821944</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.868430328730174</v>
+        <v>2.556895951478186</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.210744310831293</v>
+        <v>1.435598955090836</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4.966926374519481</v>
+        <v>5.08680437856921</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.6223248532715964</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3132970020934215</v>
+        <v>-0.3132970020934216</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.664404464675921</v>
+        <v>4.778988081461629</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.671047190567485</v>
+        <v>0.6691751848133486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.06562702519433543</v>
+        <v>-0.1351192680863017</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.870228883240195</v>
+        <v>-5.571883417990034</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8345349728253255</v>
+        <v>0.8139848971983437</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06731959457331771</v>
+        <v>0.08871019835080006</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0144202096760718</v>
+        <v>-0.04159841563386047</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6475366394781559</v>
+        <v>-0.6248531150958119</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.75044617323222</v>
+        <v>10.40563455347611</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.619006023346364</v>
+        <v>6.765945005244654</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.146273354010412</v>
+        <v>5.396113759028937</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9207945060633653</v>
+        <v>1.196397347413388</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.196975153056032</v>
+        <v>3.183032691616611</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.35826992668668</v>
+        <v>1.562320510530985</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.685546553067272</v>
+        <v>1.806030694390486</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2196014042107771</v>
+        <v>0.3075402366562706</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.709429172356312</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.503486122452851</v>
+        <v>3.503486122452852</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8330893678196026</v>
@@ -849,7 +849,7 @@
         <v>0.5488408622982599</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4987356736850752</v>
+        <v>0.4987356736850755</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.148390464377684</v>
+        <v>3.984240220298389</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.023997946419987</v>
+        <v>4.081388714343154</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4934217186527434</v>
+        <v>0.866871684091566</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1724423474483964</v>
+        <v>0.4367424264913551</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3555715541652638</v>
+        <v>0.3400260982344878</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3626845469358533</v>
+        <v>0.370520285257416</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0499055464666648</v>
+        <v>0.08408487578791944</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.01764970200092603</v>
+        <v>0.03350620295543307</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.65248653648719</v>
+        <v>11.65310361297392</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.56169113550889</v>
+        <v>11.3798481804437</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.696224121602544</v>
+        <v>6.929315365939624</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.456765038263014</v>
+        <v>6.187940165083165</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.473507284536361</v>
+        <v>1.490456137935166</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.521461937708019</v>
+        <v>1.52741865233155</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.198981894067475</v>
+        <v>1.25690192558816</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.17755018396463</v>
+        <v>1.135647235440623</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.716026428936282</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.298703776682448</v>
+        <v>2.298703776682451</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.161117635161422</v>
@@ -949,7 +949,7 @@
         <v>0.0946924906409095</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1436427708592503</v>
+        <v>0.1436427708592505</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.16493840314681</v>
+        <v>9.998406241552802</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.288383839898326</v>
+        <v>4.376019394702444</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.642101645635467</v>
+        <v>-2.825393711877355</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.044903661698355</v>
+        <v>-1.365047536263947</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6445180594359355</v>
+        <v>0.6592035044261829</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.250762474597113</v>
+        <v>0.253133054017491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1312849088517377</v>
+        <v>-0.1491023434459493</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0571039952426363</v>
+        <v>-0.07209088350816419</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.02277062155354</v>
+        <v>19.97907199466468</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.54640011195275</v>
+        <v>13.77499089218675</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.493327960170794</v>
+        <v>6.401903083011263</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.001655855099256</v>
+        <v>5.665264638517456</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.883578986383263</v>
+        <v>1.803744920553863</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.145871367652666</v>
+        <v>1.096297495943462</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4037880504563223</v>
+        <v>0.4122206419847246</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4386105252182436</v>
+        <v>0.4071507582311723</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.676268190224892</v>
+        <v>4.632262479592524</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.358783050707481</v>
+        <v>7.507152958367038</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.34199870814562</v>
+        <v>3.687299221155785</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.830305715964064</v>
+        <v>2.0511040419627</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1396502880023419</v>
+        <v>0.1430344367370633</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.228107085040836</v>
+        <v>0.2659586525203561</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1648426219500312</v>
+        <v>0.133350492204699</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.06407302086114294</v>
+        <v>0.06602460411023388</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.85840078917873</v>
+        <v>17.65091078424397</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.33110407840513</v>
+        <v>20.3016137416016</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.45830187747183</v>
+        <v>16.39600875823442</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.51475297725211</v>
+        <v>11.19144921319823</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6964638005516867</v>
+        <v>0.6908146071175119</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9825758354002698</v>
+        <v>0.9492702679786207</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7654680170834792</v>
+        <v>0.7527840042064402</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.446001468758101</v>
+        <v>0.4653760040890172</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>16.33654789106961</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13.17547882480346</v>
+        <v>13.17547882480347</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5393825331941013</v>
@@ -1149,7 +1149,7 @@
         <v>0.5410614567217099</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.4743525765266549</v>
+        <v>0.4743525765266552</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>12.87340357880626</v>
+        <v>13.15016410256787</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.992870570114252</v>
+        <v>2.443386250598649</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10.14003367954293</v>
+        <v>8.445507252564898</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8.209044515034076</v>
+        <v>8.535697482601345</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3002068003098338</v>
+        <v>0.3185225554838927</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06270717510338183</v>
+        <v>0.06112688435941982</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2987771553648006</v>
+        <v>0.2511991744177723</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2768288992094134</v>
+        <v>0.2786458336754802</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>27.69962135949264</v>
+        <v>28.34600134008281</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>18.77365605277891</v>
+        <v>18.42374372585349</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23.19082518957247</v>
+        <v>22.90152435738045</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18.12975212189281</v>
+        <v>18.25728684422508</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8195105683435977</v>
+        <v>0.8670917567790307</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5741263480428047</v>
+        <v>0.565136510396085</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8689463210826515</v>
+        <v>0.8626421042778147</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7361166342160099</v>
+        <v>0.7445910394831328</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>18.2874696634421</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16.13409861546234</v>
+        <v>16.13409861546233</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2705284043713727</v>
@@ -1249,7 +1249,7 @@
         <v>0.4073356609617789</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.364152772552952</v>
+        <v>0.3641527725529518</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.014486225435808</v>
+        <v>6.777005003832228</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.475730474128064</v>
+        <v>2.524198056336387</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10.51181082235327</v>
+        <v>10.20959153966864</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.295364841739392</v>
+        <v>10.13037967323604</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1002410597589417</v>
+        <v>0.1164464947325721</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03917251445779889</v>
+        <v>0.0383370266139617</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2131852751029243</v>
+        <v>0.2086712971645492</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1881627837694714</v>
+        <v>0.2073544237273866</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.79483139148089</v>
+        <v>24.16083273272429</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.9625424978309</v>
+        <v>19.04775183330092</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26.31446555071527</v>
+        <v>25.73405398545405</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21.29965443866994</v>
+        <v>21.77083174199153</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4708664196723</v>
+        <v>0.4930519497326357</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3678009292210631</v>
+        <v>0.3734321072099814</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6530409436900735</v>
+        <v>0.6320158308779096</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5180136748290803</v>
+        <v>0.540866078151186</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>8.182353356095144</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6.964137367832166</v>
+        <v>6.964137367832168</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8305829088277248</v>
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>10.9779696096485</v>
+        <v>11.08851145908401</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>8.01144149832334</v>
+        <v>8.267382033490589</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6.152791713852592</v>
+        <v>6.222537492970808</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5.119903582849525</v>
+        <v>5.155744872896756</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6584149523778395</v>
+        <v>0.6710372194042798</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4548578687550311</v>
+        <v>0.4703084343590953</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3780996856608178</v>
+        <v>0.375864563222876</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2758452755205357</v>
+        <v>0.2865073043861547</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>14.87898818551388</v>
+        <v>15.20256152123597</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>12.07900562218968</v>
+        <v>12.0332238058413</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.16616407073086</v>
+        <v>10.08648549481465</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8.487459508352972</v>
+        <v>8.745911252242347</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.00731200802195</v>
+        <v>1.039254423009715</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7750026678722658</v>
+        <v>0.7717546664131014</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6984632607047653</v>
+        <v>0.6877108972765003</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5166099012558597</v>
+        <v>0.5403791715951901</v>
       </c>
     </row>
     <row r="28">
